--- a/data_year/zb/卫生/村卫生室情况.xlsx
+++ b/data_year/zb/卫生/村卫生室情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,576 +473,350 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47101</v>
+        <v>49678</v>
       </c>
       <c r="C2" t="n">
-        <v>16486</v>
+        <v>23863</v>
       </c>
       <c r="D2" t="n">
-        <v>300864</v>
+        <v>365153</v>
       </c>
       <c r="E2" t="n">
-        <v>709458</v>
+        <v>648424</v>
       </c>
       <c r="F2" t="n">
-        <v>255179</v>
+        <v>177080</v>
       </c>
       <c r="G2" t="n">
-        <v>89828</v>
+        <v>32650</v>
       </c>
       <c r="H2" t="n">
-        <v>89.8</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45000</v>
+        <v>56128</v>
       </c>
       <c r="C3" t="n">
-        <v>17000</v>
+        <v>24719</v>
       </c>
       <c r="D3" t="n">
-        <v>289000</v>
+        <v>372661</v>
       </c>
       <c r="E3" t="n">
-        <v>698966</v>
+        <v>662894</v>
       </c>
       <c r="F3" t="n">
-        <v>255000</v>
+        <v>175747</v>
       </c>
       <c r="G3" t="n">
-        <v>93000</v>
+        <v>33639</v>
       </c>
       <c r="H3" t="n">
-        <v>89.7</v>
+        <v>93.40000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>58317</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25700</v>
+      </c>
+      <c r="D4" t="n">
+        <v>370099</v>
+      </c>
       <c r="E4" t="n">
-        <v>698966</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+        <v>653419</v>
+      </c>
+      <c r="F4" t="n">
+        <v>167025</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32278</v>
+      </c>
+      <c r="H4" t="n">
+        <v>93.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26343</v>
+        <v>59896</v>
       </c>
       <c r="C5" t="n">
-        <v>18256</v>
+        <v>25643</v>
       </c>
       <c r="D5" t="n">
-        <v>276590</v>
+        <v>371579</v>
       </c>
       <c r="E5" t="n">
-        <v>514920</v>
+        <v>648619</v>
       </c>
       <c r="F5" t="n">
-        <v>157733</v>
+        <v>158811</v>
       </c>
       <c r="G5" t="n">
-        <v>35998</v>
+        <v>32690</v>
       </c>
       <c r="H5" t="n">
-        <v>74.09999999999999</v>
+        <v>92.99869199440001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26964</v>
+        <v>59396</v>
       </c>
       <c r="C6" t="n">
-        <v>19454</v>
+        <v>46917</v>
       </c>
       <c r="D6" t="n">
-        <v>298418</v>
+        <v>349428</v>
       </c>
       <c r="E6" t="n">
-        <v>551600</v>
+        <v>645470</v>
       </c>
       <c r="F6" t="n">
-        <v>166533</v>
+        <v>160549</v>
       </c>
       <c r="G6" t="n">
-        <v>40231</v>
+        <v>29180</v>
       </c>
       <c r="H6" t="n">
-        <v>80.7</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32396</v>
+        <v>60231</v>
       </c>
       <c r="C7" t="n">
-        <v>18216</v>
+        <v>44548</v>
       </c>
       <c r="D7" t="n">
-        <v>313633</v>
+        <v>353196</v>
       </c>
       <c r="E7" t="n">
-        <v>583209</v>
+        <v>640536</v>
       </c>
       <c r="F7" t="n">
-        <v>180403</v>
+        <v>153353</v>
       </c>
       <c r="G7" t="n">
-        <v>38561</v>
+        <v>29208</v>
       </c>
       <c r="H7" t="n">
-        <v>85.8051214553</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34803</v>
+        <v>60419</v>
       </c>
       <c r="C8" t="n">
-        <v>17206</v>
+        <v>45828</v>
       </c>
       <c r="D8" t="n">
-        <v>333790</v>
+        <v>351016</v>
       </c>
       <c r="E8" t="n">
-        <v>609128</v>
+        <v>638763</v>
       </c>
       <c r="F8" t="n">
-        <v>186524</v>
+        <v>152164</v>
       </c>
       <c r="G8" t="n">
-        <v>36805</v>
+        <v>29336</v>
       </c>
       <c r="H8" t="n">
-        <v>88.09999999999999</v>
+        <v>92.8633451372</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33633</v>
+        <v>63598</v>
       </c>
       <c r="C9" t="n">
-        <v>19650</v>
+        <v>43701</v>
       </c>
       <c r="D9" t="n">
-        <v>340082</v>
+        <v>349025</v>
       </c>
       <c r="E9" t="n">
-        <v>613855</v>
+        <v>632057</v>
       </c>
       <c r="F9" t="n">
-        <v>186841</v>
+        <v>147046</v>
       </c>
       <c r="G9" t="n">
-        <v>33649</v>
+        <v>28687</v>
       </c>
       <c r="H9" t="n">
-        <v>88.7</v>
+        <v>92.7533642968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40248</v>
+        <v>65495</v>
       </c>
       <c r="C10" t="n">
-        <v>18348</v>
+        <v>44468</v>
       </c>
       <c r="D10" t="n">
-        <v>342692</v>
+        <v>342062</v>
       </c>
       <c r="E10" t="n">
-        <v>613143</v>
+        <v>622001</v>
       </c>
       <c r="F10" t="n">
-        <v>180157</v>
+        <v>141623</v>
       </c>
       <c r="G10" t="n">
-        <v>31698</v>
+        <v>28353</v>
       </c>
       <c r="H10" t="n">
-        <v>89.40000000000001</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45434</v>
+        <v>69091</v>
       </c>
       <c r="C11" t="n">
-        <v>22087</v>
+        <v>45277</v>
       </c>
       <c r="D11" t="n">
-        <v>350515</v>
+        <v>339525</v>
       </c>
       <c r="E11" t="n">
-        <v>632770</v>
+        <v>616094</v>
       </c>
       <c r="F11" t="n">
-        <v>183699</v>
+        <v>134575</v>
       </c>
       <c r="G11" t="n">
-        <v>31035</v>
+        <v>27626</v>
       </c>
       <c r="H11" t="n">
-        <v>90.3788345376</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>49678</v>
+        <v>71858</v>
       </c>
       <c r="C12" t="n">
-        <v>23863</v>
+        <v>46782</v>
       </c>
       <c r="D12" t="n">
-        <v>365153</v>
+        <v>337868</v>
       </c>
       <c r="E12" t="n">
-        <v>648424</v>
+        <v>608828</v>
       </c>
       <c r="F12" t="n">
-        <v>177080</v>
+        <v>125503</v>
       </c>
       <c r="G12" t="n">
-        <v>32650</v>
-      </c>
-      <c r="H12" t="n">
-        <v>92.3</v>
-      </c>
+        <v>26817</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56128</v>
+        <v>67551</v>
       </c>
       <c r="C13" t="n">
-        <v>24719</v>
+        <v>48603</v>
       </c>
       <c r="D13" t="n">
-        <v>372661</v>
+        <v>338065</v>
       </c>
       <c r="E13" t="n">
-        <v>662894</v>
+        <v>599292</v>
       </c>
       <c r="F13" t="n">
-        <v>175747</v>
+        <v>118322</v>
       </c>
       <c r="G13" t="n">
-        <v>33639</v>
-      </c>
-      <c r="H13" t="n">
-        <v>93.40000000000001</v>
-      </c>
+        <v>26751</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>58317</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25700</v>
-      </c>
-      <c r="D14" t="n">
-        <v>370099</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>653419</v>
-      </c>
-      <c r="F14" t="n">
-        <v>167025</v>
-      </c>
-      <c r="G14" t="n">
-        <v>32278</v>
-      </c>
-      <c r="H14" t="n">
-        <v>93.3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>59896</v>
-      </c>
-      <c r="C15" t="n">
-        <v>25643</v>
-      </c>
-      <c r="D15" t="n">
-        <v>371579</v>
-      </c>
-      <c r="E15" t="n">
-        <v>648619</v>
-      </c>
-      <c r="F15" t="n">
-        <v>158811</v>
-      </c>
-      <c r="G15" t="n">
-        <v>32690</v>
-      </c>
-      <c r="H15" t="n">
-        <v>92.99869199440001</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>59396</v>
-      </c>
-      <c r="C16" t="n">
-        <v>46917</v>
-      </c>
-      <c r="D16" t="n">
-        <v>349428</v>
-      </c>
-      <c r="E16" t="n">
-        <v>645470</v>
-      </c>
-      <c r="F16" t="n">
-        <v>160549</v>
-      </c>
-      <c r="G16" t="n">
-        <v>29180</v>
-      </c>
-      <c r="H16" t="n">
-        <v>93.3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>60231</v>
-      </c>
-      <c r="C17" t="n">
-        <v>44548</v>
-      </c>
-      <c r="D17" t="n">
-        <v>353196</v>
-      </c>
-      <c r="E17" t="n">
-        <v>640536</v>
-      </c>
-      <c r="F17" t="n">
-        <v>153353</v>
-      </c>
-      <c r="G17" t="n">
-        <v>29208</v>
-      </c>
-      <c r="H17" t="n">
-        <v>93.3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>60419</v>
-      </c>
-      <c r="C18" t="n">
-        <v>45828</v>
-      </c>
-      <c r="D18" t="n">
-        <v>351016</v>
-      </c>
-      <c r="E18" t="n">
-        <v>638763</v>
-      </c>
-      <c r="F18" t="n">
-        <v>152164</v>
-      </c>
-      <c r="G18" t="n">
-        <v>29336</v>
-      </c>
-      <c r="H18" t="n">
-        <v>92.8633451372</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>63598</v>
-      </c>
-      <c r="C19" t="n">
-        <v>43701</v>
-      </c>
-      <c r="D19" t="n">
-        <v>349025</v>
-      </c>
-      <c r="E19" t="n">
-        <v>632057</v>
-      </c>
-      <c r="F19" t="n">
-        <v>147046</v>
-      </c>
-      <c r="G19" t="n">
-        <v>28687</v>
-      </c>
-      <c r="H19" t="n">
-        <v>92.7533642968</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>65495</v>
-      </c>
-      <c r="C20" t="n">
-        <v>44468</v>
-      </c>
-      <c r="D20" t="n">
-        <v>342062</v>
-      </c>
-      <c r="E20" t="n">
-        <v>622001</v>
-      </c>
-      <c r="F20" t="n">
-        <v>141623</v>
-      </c>
-      <c r="G20" t="n">
-        <v>28353</v>
-      </c>
-      <c r="H20" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>69091</v>
-      </c>
-      <c r="C21" t="n">
-        <v>45277</v>
-      </c>
-      <c r="D21" t="n">
-        <v>339525</v>
-      </c>
-      <c r="E21" t="n">
-        <v>616094</v>
-      </c>
-      <c r="F21" t="n">
-        <v>134575</v>
-      </c>
-      <c r="G21" t="n">
-        <v>27626</v>
-      </c>
-      <c r="H21" t="n">
-        <v>94.8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>71858</v>
-      </c>
-      <c r="C22" t="n">
-        <v>46782</v>
-      </c>
-      <c r="D22" t="n">
-        <v>337868</v>
-      </c>
-      <c r="E22" t="n">
-        <v>608828</v>
-      </c>
-      <c r="F22" t="n">
-        <v>125503</v>
-      </c>
-      <c r="G22" t="n">
-        <v>26817</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
+        <v>588000</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
